--- a/tests/data/sm2xml_output.xlsx
+++ b/tests/data/sm2xml_output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhearne/src/python/shakemap-amp-tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0D1A3947-E997-984F-956D-49A8699BF6D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DA7AB2-C73B-4D41-9FE8-B60B47EB89C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="460" windowWidth="20700" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,21 +52,6 @@
     <t>HHE</t>
   </si>
   <si>
-    <t>pga</t>
-  </si>
-  <si>
-    <t>pgv</t>
-  </si>
-  <si>
-    <t>psa03</t>
-  </si>
-  <si>
-    <t>psa10</t>
-  </si>
-  <si>
-    <t>psa30</t>
-  </si>
-  <si>
     <t>EAS</t>
   </si>
   <si>
@@ -689,6 +674,21 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>PGA</t>
+  </si>
+  <si>
+    <t>PGV</t>
+  </si>
+  <si>
+    <t>SA(0.3)</t>
+  </si>
+  <si>
+    <t>SA(1.0)</t>
+  </si>
+  <si>
+    <t>SA(3.0)</t>
   </si>
 </sst>
 </file>
@@ -744,12 +744,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G106"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1073,13 +1073,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -1090,87 +1090,87 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="1" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="1" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="P3" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="T3" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="U3" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="V3" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>22.381</v>
@@ -1178,8 +1178,8 @@
       <c r="F5">
         <v>120.857</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>222</v>
+      <c r="G5" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H5">
         <v>8.5592702589321473E-2</v>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>22.596</v>
@@ -1246,8 +1246,8 @@
       <c r="F6">
         <v>120.962</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>222</v>
+      <c r="G6" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H6">
         <v>7.5094153463309957E-2</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>22.004000000000001</v>
@@ -1314,8 +1314,8 @@
       <c r="F7">
         <v>120.746</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>222</v>
+      <c r="G7" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H7">
         <v>7.6859383898833677E-2</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>22.036999999999999</v>
@@ -1382,8 +1382,8 @@
       <c r="F8">
         <v>121.55800000000001</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>222</v>
+      <c r="G8" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H8">
         <v>4.9888431283559548E-2</v>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>22.672999999999998</v>
@@ -1450,8 +1450,8 @@
       <c r="F9">
         <v>121.46899999999999</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>222</v>
+      <c r="G9" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H9">
         <v>6.0255663668243947E-2</v>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>22.37</v>
@@ -1518,8 +1518,8 @@
       <c r="F10">
         <v>120.628</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>222</v>
+      <c r="G10" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H10">
         <v>6.2062915401881733E-2</v>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>21.901</v>
@@ -1586,8 +1586,8 @@
       <c r="F11">
         <v>120.855</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>222</v>
+      <c r="G11" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H11">
         <v>5.6992709848569911E-2</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>21.963999999999999</v>
@@ -1654,8 +1654,8 @@
       <c r="F12">
         <v>120.752</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>222</v>
+      <c r="G12" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H12">
         <v>6.4763562385994081E-2</v>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>22.744</v>
@@ -1722,8 +1722,8 @@
       <c r="F13">
         <v>120.64</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>222</v>
+      <c r="G13" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H13">
         <v>0.17200631702980909</v>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>22.818000000000001</v>
@@ -1790,8 +1790,8 @@
       <c r="F14">
         <v>121.08</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>222</v>
+      <c r="G14" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H14">
         <v>8.5707330736414955E-2</v>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>21.94</v>
@@ -1858,8 +1858,8 @@
       <c r="F15">
         <v>120.81399999999999</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>222</v>
+      <c r="G15" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H15">
         <v>4.2923153071046737E-2</v>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>23.257000000000001</v>
@@ -1926,8 +1926,8 @@
       <c r="F16">
         <v>119.66800000000001</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>222</v>
+      <c r="G16" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H16">
         <v>7.573906794978412E-2</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>22.347000000000001</v>
@@ -1994,8 +1994,8 @@
       <c r="F17">
         <v>120.369</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>222</v>
+      <c r="G17" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H17">
         <v>7.5313637964546154E-2</v>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>25.183</v>
@@ -2062,8 +2062,8 @@
       <c r="F18">
         <v>121.529</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>222</v>
+      <c r="G18" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H18">
         <v>0.1333724769645932</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>23.184999999999999</v>
@@ -2130,8 +2130,8 @@
       <c r="F19">
         <v>120.529</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>222</v>
+      <c r="G19" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H19">
         <v>0.22897258160929859</v>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>23.076000000000001</v>
@@ -2198,8 +2198,8 @@
       <c r="F20">
         <v>120.36499999999999</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>222</v>
+      <c r="G20" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H20">
         <v>0.33040223164934529</v>
@@ -2249,16 +2249,16 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>23.483000000000001</v>
@@ -2266,8 +2266,8 @@
       <c r="F21">
         <v>120.24</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>222</v>
+      <c r="G21" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H21">
         <v>0.18588591930473999</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>22.86</v>
@@ -2334,8 +2334,8 @@
       <c r="F22">
         <v>121.092</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>222</v>
+      <c r="G22" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H22">
         <v>0.1196234999304252</v>
@@ -2385,16 +2385,16 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>22.972000000000001</v>
@@ -2402,8 +2402,8 @@
       <c r="F23">
         <v>121.30500000000001</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>222</v>
+      <c r="G23" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H23">
         <v>0.16215512983080441</v>
@@ -2453,16 +2453,16 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>23.684999999999999</v>
@@ -2470,8 +2470,8 @@
       <c r="F24">
         <v>121.483</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>222</v>
+      <c r="G24" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H24">
         <v>0.72480370462322796</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>23.187000000000001</v>
@@ -2538,8 +2538,8 @@
       <c r="F25">
         <v>121.02500000000001</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>222</v>
+      <c r="G25" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H25">
         <v>0.22693033498253859</v>
@@ -2589,16 +2589,16 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>24.779</v>
@@ -2606,8 +2606,8 @@
       <c r="F26">
         <v>121.018</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>222</v>
+      <c r="G26" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H26">
         <v>0.4564965236238161</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>22.565999999999999</v>
@@ -2674,8 +2674,8 @@
       <c r="F27">
         <v>120.316</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>222</v>
+      <c r="G27" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H27">
         <v>0.22866357556771991</v>
@@ -2725,16 +2725,16 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>25.038</v>
@@ -2742,8 +2742,8 @@
       <c r="F28">
         <v>121.923</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>222</v>
+      <c r="G28" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H28">
         <v>0.16906446289905341</v>
@@ -2793,16 +2793,16 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>24.902000000000001</v>
@@ -2810,8 +2810,8 @@
       <c r="F29">
         <v>121.553</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>222</v>
+      <c r="G29" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H29">
         <v>0.34657327044981739</v>
@@ -2861,16 +2861,16 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>24.565000000000001</v>
@@ -2878,8 +2878,8 @@
       <c r="F30">
         <v>120.82599999999999</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>222</v>
+      <c r="G30" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H30">
         <v>0.45104113813554769</v>
@@ -2929,16 +2929,16 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>25.149000000000001</v>
@@ -2946,8 +2946,8 @@
       <c r="F31">
         <v>121.773</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>222</v>
+      <c r="G31" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H31">
         <v>0.20363796854214</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>24.937999999999999</v>
@@ -3014,8 +3014,8 @@
       <c r="F32">
         <v>121.712</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>222</v>
+      <c r="G32" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H32">
         <v>0.207642699168025</v>
@@ -3065,16 +3065,16 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>24.54</v>
@@ -3082,8 +3082,8 @@
       <c r="F33">
         <v>120.92100000000001</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>222</v>
+      <c r="G33" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H33">
         <v>0.32016568901677972</v>
@@ -3133,16 +3133,16 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>25.288</v>
@@ -3150,8 +3150,8 @@
       <c r="F34">
         <v>121.589</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>222</v>
+      <c r="G34" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H34">
         <v>0.19006927447112429</v>
@@ -3201,16 +3201,16 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>24.63</v>
@@ -3218,8 +3218,8 @@
       <c r="F35">
         <v>121.009</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>222</v>
+      <c r="G35" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H35">
         <v>0.36974956718409108</v>
@@ -3269,16 +3269,16 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>24.414000000000001</v>
@@ -3286,8 +3286,8 @@
       <c r="F36">
         <v>120.77</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>222</v>
+      <c r="G36" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H36">
         <v>0.34715724608446202</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>24.998000000000001</v>
@@ -3354,8 +3354,8 @@
       <c r="F37">
         <v>121.307</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>222</v>
+      <c r="G37" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H37">
         <v>0.30998894433165952</v>
@@ -3405,16 +3405,16 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>25.202999999999999</v>
@@ -3422,8 +3422,8 @@
       <c r="F38">
         <v>121.66</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>222</v>
+      <c r="G38" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H38">
         <v>0.13496008207938379</v>
@@ -3473,16 +3473,16 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>23.565000000000001</v>
@@ -3490,8 +3490,8 @@
       <c r="F39">
         <v>119.56399999999999</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>222</v>
+      <c r="G39" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H39">
         <v>0.16575982798451541</v>
@@ -3541,16 +3541,16 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>23.146999999999998</v>
@@ -3558,8 +3558,8 @@
       <c r="F40">
         <v>120.086</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>222</v>
+      <c r="G40" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H40">
         <v>0.1178663106048832</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>22.724</v>
@@ -3626,8 +3626,8 @@
       <c r="F41">
         <v>120.499</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>222</v>
+      <c r="G41" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H41">
         <v>0.2324790579650062</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E42">
         <v>23.08</v>
@@ -3694,8 +3694,8 @@
       <c r="F42">
         <v>120.59099999999999</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>222</v>
+      <c r="G42" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H42">
         <v>0.21975727712965351</v>
@@ -3745,16 +3745,16 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>22.677</v>
@@ -3762,8 +3762,8 @@
       <c r="F43">
         <v>120.496</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>222</v>
+      <c r="G43" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H43">
         <v>0.12900034815180131</v>
@@ -3813,16 +3813,16 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <v>23.135999999999999</v>
@@ -3830,8 +3830,8 @@
       <c r="F44">
         <v>120.288</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>222</v>
+      <c r="G44" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H44">
         <v>0.48188896462830277</v>
@@ -3881,16 +3881,16 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E45">
         <v>23.161000000000001</v>
@@ -3898,8 +3898,8 @@
       <c r="F45">
         <v>120.76600000000001</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>222</v>
+      <c r="G45" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H45">
         <v>0.21791469704941049</v>
@@ -3949,16 +3949,16 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>22.992999999999999</v>
@@ -3966,8 +3966,8 @@
       <c r="F46">
         <v>120.205</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>222</v>
+      <c r="G46" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H46">
         <v>0.15404731697465329</v>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>23.038</v>
@@ -4034,8 +4034,8 @@
       <c r="F47">
         <v>120.23699999999999</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>222</v>
+      <c r="G47" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H47">
         <v>0.19454442273368749</v>
@@ -4085,16 +4085,16 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>24.146000000000001</v>
@@ -4102,8 +4102,8 @@
       <c r="F48">
         <v>120.684</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>222</v>
+      <c r="G48" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H48">
         <v>0.26455473134842278</v>
@@ -4153,16 +4153,16 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <v>22.751999999999999</v>
@@ -4170,8 +4170,8 @@
       <c r="F49">
         <v>121.155</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>222</v>
+      <c r="G49" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H49">
         <v>0.2267162138087323</v>
@@ -4221,16 +4221,16 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <v>24.978000000000002</v>
@@ -4238,8 +4238,8 @@
       <c r="F50">
         <v>121.592</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>222</v>
+      <c r="G50" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H50">
         <v>0.30196611195804368</v>
@@ -4289,16 +4289,16 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <v>25.007000000000001</v>
@@ -4306,8 +4306,8 @@
       <c r="F51">
         <v>121.997</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>222</v>
+      <c r="G51" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H51">
         <v>0.15664454698926819</v>
@@ -4357,16 +4357,16 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E52">
         <v>23.263999999999999</v>
@@ -4374,8 +4374,8 @@
       <c r="F52">
         <v>120.502</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>222</v>
+      <c r="G52" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H52">
         <v>0.3059913319511397</v>
@@ -4425,16 +4425,16 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>22.821999999999999</v>
@@ -4442,8 +4442,8 @@
       <c r="F53">
         <v>120.431</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>222</v>
+      <c r="G53" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H53">
         <v>0.17773432390476579</v>
@@ -4493,16 +4493,16 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E54">
         <v>24.347000000000001</v>
@@ -4510,8 +4510,8 @@
       <c r="F54">
         <v>120.78100000000001</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>222</v>
+      <c r="G54" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H54">
         <v>0.41885888529516968</v>
@@ -4561,16 +4561,16 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <v>25.102</v>
@@ -4578,8 +4578,8 @@
       <c r="F55">
         <v>121.423</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>222</v>
+      <c r="G55" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H55">
         <v>0.34349283701627847</v>
@@ -4629,16 +4629,16 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>23.905000000000001</v>
@@ -4646,8 +4646,8 @@
       <c r="F56">
         <v>120.87</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>222</v>
+      <c r="G56" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H56">
         <v>0.26218728393325752</v>
@@ -4697,16 +4697,16 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E57">
         <v>23.876999999999999</v>
@@ -4714,8 +4714,8 @@
       <c r="F57">
         <v>120.693</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>222</v>
+      <c r="G57" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H57">
         <v>0.56121145739137124</v>
@@ -4765,16 +4765,16 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <v>23.244</v>
@@ -4782,8 +4782,8 @@
       <c r="F58">
         <v>120.622</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>222</v>
+      <c r="G58" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H58">
         <v>0.24739161600264781</v>
@@ -4833,16 +4833,16 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E59">
         <v>24.332999999999998</v>
@@ -4850,8 +4850,8 @@
       <c r="F59">
         <v>120.65300000000001</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>222</v>
+      <c r="G59" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H59">
         <v>0.304242524864627</v>
@@ -4901,16 +4901,16 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>23.507999999999999</v>
@@ -4918,8 +4918,8 @@
       <c r="F60">
         <v>120.813</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>222</v>
+      <c r="G60" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H60">
         <v>0.35393675919822248</v>
@@ -4969,16 +4969,16 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <v>24.998000000000001</v>
@@ -4986,8 +4986,8 @@
       <c r="F61">
         <v>121.44199999999999</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>222</v>
+      <c r="G61" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H61">
         <v>0.65069008931711081</v>
@@ -5037,16 +5037,16 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>23.097999999999999</v>
@@ -5054,8 +5054,8 @@
       <c r="F62">
         <v>121.373</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>222</v>
+      <c r="G62" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H62">
         <v>0.41579500466513591</v>
@@ -5105,16 +5105,16 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>23.350999999999999</v>
@@ -5122,8 +5122,8 @@
       <c r="F63">
         <v>120.59399999999999</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>222</v>
+      <c r="G63" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H63">
         <v>0.42932380370020801</v>
@@ -5173,16 +5173,16 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>23.495999999999999</v>
@@ -5190,8 +5190,8 @@
       <c r="F64">
         <v>120.43300000000001</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>222</v>
+      <c r="G64" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H64">
         <v>0.40008605604360081</v>
@@ -5241,16 +5241,16 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <v>23.315999999999999</v>
@@ -5258,8 +5258,8 @@
       <c r="F65">
         <v>121.45099999999999</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>222</v>
+      <c r="G65" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H65">
         <v>1.3186884165269701</v>
@@ -5309,16 +5309,16 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E66">
         <v>23.094999999999999</v>
@@ -5326,8 +5326,8 @@
       <c r="F66">
         <v>121.21899999999999</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>222</v>
+      <c r="G66" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H66">
         <v>0.53858344453555818</v>
@@ -5377,16 +5377,16 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>23.707999999999998</v>
@@ -5394,8 +5394,8 @@
       <c r="F67">
         <v>121.548</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>222</v>
+      <c r="G67" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H67">
         <v>0.8521407382241597</v>
@@ -5445,16 +5445,16 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <v>23.812000000000001</v>
@@ -5462,8 +5462,8 @@
       <c r="F68">
         <v>121.44199999999999</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>222</v>
+      <c r="G68" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H68">
         <v>2.2387925801106361</v>
@@ -5513,16 +5513,16 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E69">
         <v>24.827999999999999</v>
@@ -5530,8 +5530,8 @@
       <c r="F69">
         <v>121.014</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>222</v>
+      <c r="G69" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H69">
         <v>0.44811988106731171</v>
@@ -5581,16 +5581,16 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E70">
         <v>24.763999999999999</v>
@@ -5598,8 +5598,8 @@
       <c r="F70">
         <v>121.756</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>222</v>
+      <c r="G70" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H70">
         <v>0.80274514327446855</v>
@@ -5649,16 +5649,16 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <v>24.966999999999999</v>
@@ -5666,8 +5666,8 @@
       <c r="F71">
         <v>121.19499999999999</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>222</v>
+      <c r="G71" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H71">
         <v>0.46146029433297397</v>
@@ -5717,16 +5717,16 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>25.041</v>
@@ -5734,8 +5734,8 @@
       <c r="F72">
         <v>121.569</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>222</v>
+      <c r="G72" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H72">
         <v>0.59406945554651691</v>
@@ -5785,16 +5785,16 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E73">
         <v>24.736000000000001</v>
@@ -5802,8 +5802,8 @@
       <c r="F73">
         <v>121.08799999999999</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>222</v>
+      <c r="G73" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H73">
         <v>0.54354451615067778</v>
@@ -5853,16 +5853,16 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <v>24.684000000000001</v>
@@ -5870,8 +5870,8 @@
       <c r="F74">
         <v>120.87</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>222</v>
+      <c r="G74" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H74">
         <v>0.33132014627723139</v>
@@ -5921,16 +5921,16 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E75">
         <v>24.673999999999999</v>
@@ -5938,8 +5938,8 @@
       <c r="F75">
         <v>121.367</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>222</v>
+      <c r="G75" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H75">
         <v>0.73679793917380187</v>
@@ -5989,16 +5989,16 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E76">
         <v>25.071999999999999</v>
@@ -6006,8 +6006,8 @@
       <c r="F76">
         <v>121.78100000000001</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>222</v>
+      <c r="G76" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H76">
         <v>0.42706171980874691</v>
@@ -6057,16 +6057,16 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>23.173999999999999</v>
@@ -6074,8 +6074,8 @@
       <c r="F77">
         <v>120.202</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>222</v>
+      <c r="G77" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H77">
         <v>0.1199702827703544</v>
@@ -6125,16 +6125,16 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>23.882000000000001</v>
@@ -6142,8 +6142,8 @@
       <c r="F78">
         <v>120.908</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>222</v>
+      <c r="G78" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H78">
         <v>0.6447171383691398</v>
@@ -6193,16 +6193,16 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E79">
         <v>25.036999999999999</v>
@@ -6210,8 +6210,8 @@
       <c r="F79">
         <v>121.514</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>222</v>
+      <c r="G79" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H79">
         <v>0.47866335042190389</v>
@@ -6261,16 +6261,16 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E80">
         <v>24.608000000000001</v>
@@ -6278,8 +6278,8 @@
       <c r="F80">
         <v>121.86</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>222</v>
+      <c r="G80" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H80">
         <v>0.67200375984620997</v>
@@ -6329,16 +6329,16 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E81">
         <v>24.718</v>
@@ -6346,8 +6346,8 @@
       <c r="F81">
         <v>121.68300000000001</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>222</v>
+      <c r="G81" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H81">
         <v>0.6624091331723998</v>
@@ -6397,16 +6397,16 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E82">
         <v>24.082000000000001</v>
@@ -6414,8 +6414,8 @@
       <c r="F82">
         <v>120.557</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>222</v>
+      <c r="G82" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H82">
         <v>0.57620955386107386</v>
@@ -6465,16 +6465,16 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>24.135000000000002</v>
@@ -6482,8 +6482,8 @@
       <c r="F83">
         <v>120.557</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>222</v>
+      <c r="G83" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H83">
         <v>0.37339554433497729</v>
@@ -6533,16 +6533,16 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E84">
         <v>23.715</v>
@@ -6550,8 +6550,8 @@
       <c r="F84">
         <v>120.539</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>222</v>
+      <c r="G84" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H84">
         <v>0.43692778989928732</v>
@@ -6601,16 +6601,16 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E85">
         <v>24.259</v>
@@ -6618,8 +6618,8 @@
       <c r="F85">
         <v>120.831</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>222</v>
+      <c r="G85" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H85">
         <v>0.39782609238058858</v>
@@ -6669,16 +6669,16 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E86">
         <v>23.811</v>
@@ -6686,8 +6686,8 @@
       <c r="F86">
         <v>120.61799999999999</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>222</v>
+      <c r="G86" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H86">
         <v>0.44122239580783912</v>
@@ -6737,16 +6737,16 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E87">
         <v>23.684999999999999</v>
@@ -6754,8 +6754,8 @@
       <c r="F87">
         <v>120.57</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>222</v>
+      <c r="G87" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H87">
         <v>0.50453151571198185</v>
@@ -6805,16 +6805,16 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E88">
         <v>23.907</v>
@@ -6822,8 +6822,8 @@
       <c r="F88">
         <v>120.68</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>222</v>
+      <c r="G88" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H88">
         <v>0.56209821670657178</v>
@@ -6873,16 +6873,16 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E89">
         <v>24.013000000000002</v>
@@ -6890,8 +6890,8 @@
       <c r="F89">
         <v>120.95699999999999</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>222</v>
+      <c r="G89" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H89">
         <v>0.2839807559990894</v>
@@ -6941,16 +6941,16 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E90">
         <v>23.635999999999999</v>
@@ -6958,8 +6958,8 @@
       <c r="F90">
         <v>120.23</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>222</v>
+      <c r="G90" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H90">
         <v>0.40363887070328502</v>
@@ -7009,16 +7009,16 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E91">
         <v>23.861999999999998</v>
@@ -7026,8 +7026,8 @@
       <c r="F91">
         <v>120.289</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>222</v>
+      <c r="G91" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H91">
         <v>0.22867510580351141</v>
@@ -7077,16 +7077,16 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E92">
         <v>24.042999999999999</v>
@@ -7094,8 +7094,8 @@
       <c r="F92">
         <v>120.69799999999999</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>222</v>
+      <c r="G92" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H92">
         <v>0.44696419233021317</v>
@@ -7145,16 +7145,16 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E93">
         <v>23.960999999999999</v>
@@ -7162,8 +7162,8 @@
       <c r="F93">
         <v>120.58</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>222</v>
+      <c r="G93" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H93">
         <v>0.68615790170556801</v>
@@ -7213,16 +7213,16 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E94">
         <v>23.597000000000001</v>
@@ -7230,8 +7230,8 @@
       <c r="F94">
         <v>120.67700000000001</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>222</v>
+      <c r="G94" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H94">
         <v>0.91150096231904287</v>
@@ -7281,16 +7281,16 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E95">
         <v>24.637</v>
@@ -7298,8 +7298,8 @@
       <c r="F95">
         <v>121.574</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>222</v>
+      <c r="G95" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H95">
         <v>1.5373626289644331</v>
@@ -7349,16 +7349,16 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E96">
         <v>24.437999999999999</v>
@@ -7366,8 +7366,8 @@
       <c r="F96">
         <v>121.381</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>222</v>
+      <c r="G96" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H96">
         <v>1.3411053780627129</v>
@@ -7417,16 +7417,16 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E97">
         <v>24.248999999999999</v>
@@ -7434,8 +7434,8 @@
       <c r="F97">
         <v>121.16200000000001</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>222</v>
+      <c r="G97" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H97">
         <v>1.2355772497706261</v>
@@ -7485,16 +7485,16 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E98">
         <v>24.308</v>
@@ -7502,8 +7502,8 @@
       <c r="F98">
         <v>121.749</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>222</v>
+      <c r="G98" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H98">
         <v>8.5642470939017024</v>
@@ -7553,16 +7553,16 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E99">
         <v>24.672999999999998</v>
@@ -7570,8 +7570,8 @@
       <c r="F99">
         <v>121.773</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>222</v>
+      <c r="G99" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H99">
         <v>2.508531920600416</v>
@@ -7621,16 +7621,16 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E100">
         <v>24.081</v>
@@ -7638,8 +7638,8 @@
       <c r="F100">
         <v>121.605</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>222</v>
+      <c r="G100" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H100">
         <v>15.46754768086822</v>
@@ -7689,16 +7689,16 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E101">
         <v>24.143999999999998</v>
@@ -7706,8 +7706,8 @@
       <c r="F101">
         <v>121.273</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>222</v>
+      <c r="G101" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H101">
         <v>3.2197804277879829</v>
@@ -7757,16 +7757,16 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E102">
         <v>23.966000000000001</v>
@@ -7774,8 +7774,8 @@
       <c r="F102">
         <v>121.49299999999999</v>
       </c>
-      <c r="G102" s="4" t="s">
-        <v>222</v>
+      <c r="G102" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H102">
         <v>13.06062054670476</v>
@@ -7825,16 +7825,16 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E103">
         <v>23.904</v>
@@ -7842,8 +7842,8 @@
       <c r="F103">
         <v>121.602</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>222</v>
+      <c r="G103" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H103">
         <v>24.423373979589449</v>
@@ -7893,16 +7893,16 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E104">
         <v>24.425999999999998</v>
@@ -7910,8 +7910,8 @@
       <c r="F104">
         <v>121.749</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>222</v>
+      <c r="G104" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H104">
         <v>8.339116384306422</v>
@@ -7961,16 +7961,16 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E105">
         <v>24.158000000000001</v>
@@ -7978,8 +7978,8 @@
       <c r="F105">
         <v>121.623</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>222</v>
+      <c r="G105" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H105">
         <v>17.108617595034229</v>
@@ -8029,16 +8029,16 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E106">
         <v>23.975000000000001</v>
@@ -8046,8 +8046,8 @@
       <c r="F106">
         <v>121.614</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>222</v>
+      <c r="G106" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H106">
         <v>21.328690543673591</v>

--- a/tests/data/sm2xml_output.xlsx
+++ b/tests/data/sm2xml_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhearne/src/python/shakemap-amp-tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DA7AB2-C73B-4D41-9FE8-B60B47EB89C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258941A9-5190-4641-87C1-0493E6472987}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="460" windowWidth="20700" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,21 +28,6 @@
     <t>Taiwan Central Weather Bureau</t>
   </si>
   <si>
-    <t>station</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
     <t>HHZ</t>
   </si>
   <si>
@@ -667,12 +652,6 @@
     <t>Hualien City</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>netid</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
@@ -689,6 +668,27 @@
   </si>
   <si>
     <t>SA(3.0)</t>
+  </si>
+  <si>
+    <t>STATION</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>NETID</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1070,42 +1070,42 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
       <c r="M2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -1114,63 +1114,63 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Q3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="R3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="S3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="T3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="U3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="V3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>22.381</v>
@@ -1179,7 +1179,7 @@
         <v>120.857</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H5">
         <v>8.5592702589321473E-2</v>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>22.596</v>
@@ -1247,7 +1247,7 @@
         <v>120.962</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H6">
         <v>7.5094153463309957E-2</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>22.004000000000001</v>
@@ -1315,7 +1315,7 @@
         <v>120.746</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H7">
         <v>7.6859383898833677E-2</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>22.036999999999999</v>
@@ -1383,7 +1383,7 @@
         <v>121.55800000000001</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H8">
         <v>4.9888431283559548E-2</v>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>22.672999999999998</v>
@@ -1451,7 +1451,7 @@
         <v>121.46899999999999</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H9">
         <v>6.0255663668243947E-2</v>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>22.37</v>
@@ -1519,7 +1519,7 @@
         <v>120.628</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H10">
         <v>6.2062915401881733E-2</v>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>21.901</v>
@@ -1587,7 +1587,7 @@
         <v>120.855</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H11">
         <v>5.6992709848569911E-2</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>21.963999999999999</v>
@@ -1655,7 +1655,7 @@
         <v>120.752</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H12">
         <v>6.4763562385994081E-2</v>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>22.744</v>
@@ -1723,7 +1723,7 @@
         <v>120.64</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H13">
         <v>0.17200631702980909</v>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>22.818000000000001</v>
@@ -1791,7 +1791,7 @@
         <v>121.08</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H14">
         <v>8.5707330736414955E-2</v>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>21.94</v>
@@ -1859,7 +1859,7 @@
         <v>120.81399999999999</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H15">
         <v>4.2923153071046737E-2</v>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>23.257000000000001</v>
@@ -1927,7 +1927,7 @@
         <v>119.66800000000001</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H16">
         <v>7.573906794978412E-2</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>22.347000000000001</v>
@@ -1995,7 +1995,7 @@
         <v>120.369</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H17">
         <v>7.5313637964546154E-2</v>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>25.183</v>
@@ -2063,7 +2063,7 @@
         <v>121.529</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H18">
         <v>0.1333724769645932</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>23.184999999999999</v>
@@ -2131,7 +2131,7 @@
         <v>120.529</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H19">
         <v>0.22897258160929859</v>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>23.076000000000001</v>
@@ -2199,7 +2199,7 @@
         <v>120.36499999999999</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H20">
         <v>0.33040223164934529</v>
@@ -2249,16 +2249,16 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>23.483000000000001</v>
@@ -2267,7 +2267,7 @@
         <v>120.24</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H21">
         <v>0.18588591930473999</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>22.86</v>
@@ -2335,7 +2335,7 @@
         <v>121.092</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H22">
         <v>0.1196234999304252</v>
@@ -2385,16 +2385,16 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>22.972000000000001</v>
@@ -2403,7 +2403,7 @@
         <v>121.30500000000001</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H23">
         <v>0.16215512983080441</v>
@@ -2453,16 +2453,16 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>23.684999999999999</v>
@@ -2471,7 +2471,7 @@
         <v>121.483</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H24">
         <v>0.72480370462322796</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>23.187000000000001</v>
@@ -2539,7 +2539,7 @@
         <v>121.02500000000001</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H25">
         <v>0.22693033498253859</v>
@@ -2589,16 +2589,16 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>24.779</v>
@@ -2607,7 +2607,7 @@
         <v>121.018</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H26">
         <v>0.4564965236238161</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>22.565999999999999</v>
@@ -2675,7 +2675,7 @@
         <v>120.316</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H27">
         <v>0.22866357556771991</v>
@@ -2725,16 +2725,16 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>25.038</v>
@@ -2743,7 +2743,7 @@
         <v>121.923</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H28">
         <v>0.16906446289905341</v>
@@ -2793,16 +2793,16 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>24.902000000000001</v>
@@ -2811,7 +2811,7 @@
         <v>121.553</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H29">
         <v>0.34657327044981739</v>
@@ -2861,16 +2861,16 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>24.565000000000001</v>
@@ -2879,7 +2879,7 @@
         <v>120.82599999999999</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H30">
         <v>0.45104113813554769</v>
@@ -2929,16 +2929,16 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>25.149000000000001</v>
@@ -2947,7 +2947,7 @@
         <v>121.773</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H31">
         <v>0.20363796854214</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>24.937999999999999</v>
@@ -3015,7 +3015,7 @@
         <v>121.712</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H32">
         <v>0.207642699168025</v>
@@ -3065,16 +3065,16 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>24.54</v>
@@ -3083,7 +3083,7 @@
         <v>120.92100000000001</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H33">
         <v>0.32016568901677972</v>
@@ -3133,16 +3133,16 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>25.288</v>
@@ -3151,7 +3151,7 @@
         <v>121.589</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H34">
         <v>0.19006927447112429</v>
@@ -3201,16 +3201,16 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>24.63</v>
@@ -3219,7 +3219,7 @@
         <v>121.009</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H35">
         <v>0.36974956718409108</v>
@@ -3269,16 +3269,16 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>24.414000000000001</v>
@@ -3287,7 +3287,7 @@
         <v>120.77</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H36">
         <v>0.34715724608446202</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>24.998000000000001</v>
@@ -3355,7 +3355,7 @@
         <v>121.307</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H37">
         <v>0.30998894433165952</v>
@@ -3405,16 +3405,16 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>25.202999999999999</v>
@@ -3423,7 +3423,7 @@
         <v>121.66</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H38">
         <v>0.13496008207938379</v>
@@ -3473,16 +3473,16 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>23.565000000000001</v>
@@ -3491,7 +3491,7 @@
         <v>119.56399999999999</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H39">
         <v>0.16575982798451541</v>
@@ -3541,16 +3541,16 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>23.146999999999998</v>
@@ -3559,7 +3559,7 @@
         <v>120.086</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H40">
         <v>0.1178663106048832</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>22.724</v>
@@ -3627,7 +3627,7 @@
         <v>120.499</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H41">
         <v>0.2324790579650062</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>23.08</v>
@@ -3695,7 +3695,7 @@
         <v>120.59099999999999</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H42">
         <v>0.21975727712965351</v>
@@ -3745,16 +3745,16 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>22.677</v>
@@ -3763,7 +3763,7 @@
         <v>120.496</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H43">
         <v>0.12900034815180131</v>
@@ -3813,16 +3813,16 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>23.135999999999999</v>
@@ -3831,7 +3831,7 @@
         <v>120.288</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H44">
         <v>0.48188896462830277</v>
@@ -3881,16 +3881,16 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>23.161000000000001</v>
@@ -3899,7 +3899,7 @@
         <v>120.76600000000001</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H45">
         <v>0.21791469704941049</v>
@@ -3949,16 +3949,16 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>22.992999999999999</v>
@@ -3967,7 +3967,7 @@
         <v>120.205</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H46">
         <v>0.15404731697465329</v>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>23.038</v>
@@ -4035,7 +4035,7 @@
         <v>120.23699999999999</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H47">
         <v>0.19454442273368749</v>
@@ -4085,16 +4085,16 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>24.146000000000001</v>
@@ -4103,7 +4103,7 @@
         <v>120.684</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H48">
         <v>0.26455473134842278</v>
@@ -4153,16 +4153,16 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>22.751999999999999</v>
@@ -4171,7 +4171,7 @@
         <v>121.155</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H49">
         <v>0.2267162138087323</v>
@@ -4221,16 +4221,16 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <v>24.978000000000002</v>
@@ -4239,7 +4239,7 @@
         <v>121.592</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H50">
         <v>0.30196611195804368</v>
@@ -4289,16 +4289,16 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>25.007000000000001</v>
@@ -4307,7 +4307,7 @@
         <v>121.997</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H51">
         <v>0.15664454698926819</v>
@@ -4357,16 +4357,16 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>23.263999999999999</v>
@@ -4375,7 +4375,7 @@
         <v>120.502</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H52">
         <v>0.3059913319511397</v>
@@ -4425,16 +4425,16 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>22.821999999999999</v>
@@ -4443,7 +4443,7 @@
         <v>120.431</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H53">
         <v>0.17773432390476579</v>
@@ -4493,16 +4493,16 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E54">
         <v>24.347000000000001</v>
@@ -4511,7 +4511,7 @@
         <v>120.78100000000001</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H54">
         <v>0.41885888529516968</v>
@@ -4561,16 +4561,16 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>25.102</v>
@@ -4579,7 +4579,7 @@
         <v>121.423</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H55">
         <v>0.34349283701627847</v>
@@ -4629,16 +4629,16 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>23.905000000000001</v>
@@ -4647,7 +4647,7 @@
         <v>120.87</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H56">
         <v>0.26218728393325752</v>
@@ -4697,16 +4697,16 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <v>23.876999999999999</v>
@@ -4715,7 +4715,7 @@
         <v>120.693</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H57">
         <v>0.56121145739137124</v>
@@ -4765,16 +4765,16 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>23.244</v>
@@ -4783,7 +4783,7 @@
         <v>120.622</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H58">
         <v>0.24739161600264781</v>
@@ -4833,16 +4833,16 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>24.332999999999998</v>
@@ -4851,7 +4851,7 @@
         <v>120.65300000000001</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H59">
         <v>0.304242524864627</v>
@@ -4901,16 +4901,16 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E60">
         <v>23.507999999999999</v>
@@ -4919,7 +4919,7 @@
         <v>120.813</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H60">
         <v>0.35393675919822248</v>
@@ -4969,16 +4969,16 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>24.998000000000001</v>
@@ -4987,7 +4987,7 @@
         <v>121.44199999999999</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H61">
         <v>0.65069008931711081</v>
@@ -5037,16 +5037,16 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>23.097999999999999</v>
@@ -5055,7 +5055,7 @@
         <v>121.373</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H62">
         <v>0.41579500466513591</v>
@@ -5105,16 +5105,16 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>23.350999999999999</v>
@@ -5123,7 +5123,7 @@
         <v>120.59399999999999</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H63">
         <v>0.42932380370020801</v>
@@ -5173,16 +5173,16 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>23.495999999999999</v>
@@ -5191,7 +5191,7 @@
         <v>120.43300000000001</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H64">
         <v>0.40008605604360081</v>
@@ -5241,16 +5241,16 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <v>23.315999999999999</v>
@@ -5259,7 +5259,7 @@
         <v>121.45099999999999</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H65">
         <v>1.3186884165269701</v>
@@ -5309,16 +5309,16 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <v>23.094999999999999</v>
@@ -5327,7 +5327,7 @@
         <v>121.21899999999999</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H66">
         <v>0.53858344453555818</v>
@@ -5377,16 +5377,16 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E67">
         <v>23.707999999999998</v>
@@ -5395,7 +5395,7 @@
         <v>121.548</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H67">
         <v>0.8521407382241597</v>
@@ -5445,16 +5445,16 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>23.812000000000001</v>
@@ -5463,7 +5463,7 @@
         <v>121.44199999999999</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H68">
         <v>2.2387925801106361</v>
@@ -5513,16 +5513,16 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <v>24.827999999999999</v>
@@ -5531,7 +5531,7 @@
         <v>121.014</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H69">
         <v>0.44811988106731171</v>
@@ -5581,16 +5581,16 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <v>24.763999999999999</v>
@@ -5599,7 +5599,7 @@
         <v>121.756</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H70">
         <v>0.80274514327446855</v>
@@ -5649,16 +5649,16 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E71">
         <v>24.966999999999999</v>
@@ -5667,7 +5667,7 @@
         <v>121.19499999999999</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H71">
         <v>0.46146029433297397</v>
@@ -5717,16 +5717,16 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E72">
         <v>25.041</v>
@@ -5735,7 +5735,7 @@
         <v>121.569</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H72">
         <v>0.59406945554651691</v>
@@ -5785,16 +5785,16 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <v>24.736000000000001</v>
@@ -5803,7 +5803,7 @@
         <v>121.08799999999999</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H73">
         <v>0.54354451615067778</v>
@@ -5853,16 +5853,16 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E74">
         <v>24.684000000000001</v>
@@ -5871,7 +5871,7 @@
         <v>120.87</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H74">
         <v>0.33132014627723139</v>
@@ -5921,16 +5921,16 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>24.673999999999999</v>
@@ -5939,7 +5939,7 @@
         <v>121.367</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H75">
         <v>0.73679793917380187</v>
@@ -5989,16 +5989,16 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <v>25.071999999999999</v>
@@ -6007,7 +6007,7 @@
         <v>121.78100000000001</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H76">
         <v>0.42706171980874691</v>
@@ -6057,16 +6057,16 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <v>23.173999999999999</v>
@@ -6075,7 +6075,7 @@
         <v>120.202</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H77">
         <v>0.1199702827703544</v>
@@ -6125,16 +6125,16 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <v>23.882000000000001</v>
@@ -6143,7 +6143,7 @@
         <v>120.908</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H78">
         <v>0.6447171383691398</v>
@@ -6193,16 +6193,16 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E79">
         <v>25.036999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>121.514</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H79">
         <v>0.47866335042190389</v>
@@ -6261,16 +6261,16 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E80">
         <v>24.608000000000001</v>
@@ -6279,7 +6279,7 @@
         <v>121.86</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H80">
         <v>0.67200375984620997</v>
@@ -6329,16 +6329,16 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E81">
         <v>24.718</v>
@@ -6347,7 +6347,7 @@
         <v>121.68300000000001</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H81">
         <v>0.6624091331723998</v>
@@ -6397,16 +6397,16 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E82">
         <v>24.082000000000001</v>
@@ -6415,7 +6415,7 @@
         <v>120.557</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H82">
         <v>0.57620955386107386</v>
@@ -6465,16 +6465,16 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E83">
         <v>24.135000000000002</v>
@@ -6483,7 +6483,7 @@
         <v>120.557</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H83">
         <v>0.37339554433497729</v>
@@ -6533,16 +6533,16 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E84">
         <v>23.715</v>
@@ -6551,7 +6551,7 @@
         <v>120.539</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H84">
         <v>0.43692778989928732</v>
@@ -6601,16 +6601,16 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E85">
         <v>24.259</v>
@@ -6619,7 +6619,7 @@
         <v>120.831</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H85">
         <v>0.39782609238058858</v>
@@ -6669,16 +6669,16 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E86">
         <v>23.811</v>
@@ -6687,7 +6687,7 @@
         <v>120.61799999999999</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H86">
         <v>0.44122239580783912</v>
@@ -6737,16 +6737,16 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E87">
         <v>23.684999999999999</v>
@@ -6755,7 +6755,7 @@
         <v>120.57</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H87">
         <v>0.50453151571198185</v>
@@ -6805,16 +6805,16 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>23.907</v>
@@ -6823,7 +6823,7 @@
         <v>120.68</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H88">
         <v>0.56209821670657178</v>
@@ -6873,16 +6873,16 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E89">
         <v>24.013000000000002</v>
@@ -6891,7 +6891,7 @@
         <v>120.95699999999999</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H89">
         <v>0.2839807559990894</v>
@@ -6941,16 +6941,16 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E90">
         <v>23.635999999999999</v>
@@ -6959,7 +6959,7 @@
         <v>120.23</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H90">
         <v>0.40363887070328502</v>
@@ -7009,16 +7009,16 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E91">
         <v>23.861999999999998</v>
@@ -7027,7 +7027,7 @@
         <v>120.289</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H91">
         <v>0.22867510580351141</v>
@@ -7077,16 +7077,16 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E92">
         <v>24.042999999999999</v>
@@ -7095,7 +7095,7 @@
         <v>120.69799999999999</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H92">
         <v>0.44696419233021317</v>
@@ -7145,16 +7145,16 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E93">
         <v>23.960999999999999</v>
@@ -7163,7 +7163,7 @@
         <v>120.58</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H93">
         <v>0.68615790170556801</v>
@@ -7213,16 +7213,16 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E94">
         <v>23.597000000000001</v>
@@ -7231,7 +7231,7 @@
         <v>120.67700000000001</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H94">
         <v>0.91150096231904287</v>
@@ -7281,16 +7281,16 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <v>24.637</v>
@@ -7299,7 +7299,7 @@
         <v>121.574</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H95">
         <v>1.5373626289644331</v>
@@ -7349,16 +7349,16 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E96">
         <v>24.437999999999999</v>
@@ -7367,7 +7367,7 @@
         <v>121.381</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H96">
         <v>1.3411053780627129</v>
@@ -7417,16 +7417,16 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>24.248999999999999</v>
@@ -7435,7 +7435,7 @@
         <v>121.16200000000001</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H97">
         <v>1.2355772497706261</v>
@@ -7485,16 +7485,16 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E98">
         <v>24.308</v>
@@ -7503,7 +7503,7 @@
         <v>121.749</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H98">
         <v>8.5642470939017024</v>
@@ -7553,16 +7553,16 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E99">
         <v>24.672999999999998</v>
@@ -7571,7 +7571,7 @@
         <v>121.773</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H99">
         <v>2.508531920600416</v>
@@ -7621,16 +7621,16 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E100">
         <v>24.081</v>
@@ -7639,7 +7639,7 @@
         <v>121.605</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H100">
         <v>15.46754768086822</v>
@@ -7689,16 +7689,16 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E101">
         <v>24.143999999999998</v>
@@ -7707,7 +7707,7 @@
         <v>121.273</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H101">
         <v>3.2197804277879829</v>
@@ -7757,16 +7757,16 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E102">
         <v>23.966000000000001</v>
@@ -7775,7 +7775,7 @@
         <v>121.49299999999999</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H102">
         <v>13.06062054670476</v>
@@ -7825,16 +7825,16 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E103">
         <v>23.904</v>
@@ -7843,7 +7843,7 @@
         <v>121.602</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H103">
         <v>24.423373979589449</v>
@@ -7893,16 +7893,16 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E104">
         <v>24.425999999999998</v>
@@ -7911,7 +7911,7 @@
         <v>121.749</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H104">
         <v>8.339116384306422</v>
@@ -7961,16 +7961,16 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E105">
         <v>24.158000000000001</v>
@@ -7979,7 +7979,7 @@
         <v>121.623</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H105">
         <v>17.108617595034229</v>
@@ -8029,16 +8029,16 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E106">
         <v>23.975000000000001</v>
@@ -8047,7 +8047,7 @@
         <v>121.614</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H106">
         <v>21.328690543673591</v>
